--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\CS-4365.002-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608F44E-171F-4C33-8BC0-78CE54883015}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -59,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,6 +415,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -442,6 +467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,11 +780,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.16000000000000003</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -754,12 +796,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.26400000000000001</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.79400000000000004</v>
+        <v>0.89000000000000012</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -773,14 +815,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
         <v>0.9</v>
       </c>
       <c r="H8" s="10">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -793,10 +835,10 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="12"/>
@@ -812,10 +854,10 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
@@ -834,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="12">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
@@ -1037,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1049,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0608F44E-171F-4C33-8BC0-78CE54883015}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5430" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,23 +414,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -467,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,16 +757,16 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.36000000000000004</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.89000000000000012</v>
+        <v>0.75</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -819,10 +784,10 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H8" s="10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -1079,7 +1044,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1091,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D0F00-29AC-4DC3-B07D-511BE2926964}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,6 +415,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,11 +659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +746,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -745,7 +780,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>8.0000000000000016E-2</v>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -766,7 +801,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.75</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -777,7 +812,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="E8" s="10">
         <v>0.9</v>
@@ -800,7 +835,7 @@
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E9" s="12">
         <v>0.9</v>
@@ -819,7 +854,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="E10" s="12">
         <v>0.9</v>
@@ -837,9 +872,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
+      <c r="D11" s="19"/>
       <c r="E11" s="12">
         <v>0.9</v>
       </c>
@@ -856,9 +889,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="19">
-        <v>1</v>
-      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="12"/>
       <c r="F12" s="21"/>
       <c r="G12" s="12"/>
@@ -873,9 +904,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="12"/>
       <c r="F13" s="21"/>
       <c r="G13" s="12"/>
@@ -890,9 +919,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="19">
-        <v>1</v>
-      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="12"/>
       <c r="F14" s="21"/>
       <c r="G14" s="12"/>
@@ -907,9 +934,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="12"/>
       <c r="F15" s="21"/>
       <c r="G15" s="12"/>
@@ -924,9 +949,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="12"/>
       <c r="F16" s="21"/>
       <c r="G16" s="12"/>
@@ -941,9 +964,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="12"/>
       <c r="F17" s="21"/>
       <c r="G17" s="12"/>
@@ -1044,7 +1065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1056,7 +1077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9D0F00-29AC-4DC3-B07D-511BE2926964}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543BAA6B-571F-420C-AF70-ECED060888BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
@@ -792,7 +792,7 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
@@ -801,7 +801,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.72799999999999998</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -819,7 +819,7 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="H8" s="10">
         <v>0.7</v>
@@ -856,9 +856,7 @@
       <c r="D10" s="19">
         <v>0.51</v>
       </c>
-      <c r="E10" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="E10" s="12"/>
       <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -873,9 +871,7 @@
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="12">
-        <v>0.9</v>
-      </c>
+      <c r="E11" s="12"/>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543BAA6B-571F-420C-AF70-ECED060888BF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6030" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,23 +414,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -467,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,11 +624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +711,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -780,11 +745,11 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>5.7999999999999996E-2</v>
+        <v>4.3500000000000004E-2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
-        <v>0.18000000000000002</v>
+        <v>0.18500000000000003</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
@@ -796,12 +761,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.71599999999999997</v>
+        <v>0.60650000000000004</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -815,14 +780,14 @@
         <v>0.93</v>
       </c>
       <c r="E8" s="10">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
         <v>0.66</v>
       </c>
       <c r="H8" s="10">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -838,7 +803,7 @@
         <v>0.3</v>
       </c>
       <c r="E9" s="12">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="12"/>
@@ -854,7 +819,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="21"/>
@@ -870,7 +835,9 @@
         <v>4</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="19">
+        <v>0.51</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="21"/>
       <c r="G11" s="12"/>
@@ -1061,7 +1028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1073,7 +1040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A88F7-C24F-46B4-A025-08E27F407932}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,6 +416,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,6 +468,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,11 +660,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1040,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076A88F7-C24F-46B4-A025-08E27F407932}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95FF1B-E529-4279-9D8D-3728D193BFE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,16 +793,16 @@
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
-        <v>0.19800000000000001</v>
+        <v>0.24899999999999997</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.18000000000000002</v>
+        <v>0.124</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.60650000000000004</v>
+        <v>0.60150000000000003</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -820,10 +820,10 @@
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="10">
-        <v>0.66</v>
+        <v>0.83</v>
       </c>
       <c r="H8" s="10">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A95FF1B-E529-4279-9D8D-3728D193BFE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63390D-C75D-42F2-97F3-B47E9B3DA68C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,12 +797,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.124</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.60150000000000003</v>
+        <v>0.76150000000000007</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -823,7 +823,7 @@
         <v>0.83</v>
       </c>
       <c r="H8" s="10">
-        <v>0.31</v>
+        <v>0.71</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>

--- a/1.1-CS-4365.002-AI/Grades.xlsx
+++ b/1.1-CS-4365.002-AI/Grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\UTDFall2018\1.1-CS-4365.002-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B63390D-C75D-42F2-97F3-B47E9B3DA68C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D133F970-8A2F-4596-91BE-2B0361493C51}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="6630" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>4.3500000000000004E-2</v>
+        <v>6.4250000000000015E-2</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -797,12 +797,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.28399999999999997</v>
+        <v>0.31400000000000006</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23">
         <f>SUM(C7:H7)</f>
-        <v>0.76150000000000007</v>
+        <v>0.81225000000000003</v>
       </c>
       <c r="K7" s="23"/>
       <c r="L7" s="5"/>
@@ -823,7 +823,7 @@
         <v>0.83</v>
       </c>
       <c r="H8" s="10">
-        <v>0.71</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
@@ -855,7 +855,7 @@
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="19">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="21"/>
